--- a/skaitomon-zei-jbovlaste.xlsx
+++ b/skaitomon-zei-jbovlaste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\skytomo\Documents\Language\Lojban\skaitomon-zei-jbovlaste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D343A9A5-4B94-43A8-8082-1D04F05C2666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDA4374-61D4-453A-950E-968468CDD018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D3AC4AD-44E2-482A-929C-73469CD0EDC7}"/>
   </bookViews>
@@ -24373,17 +24373,17 @@
   <dimension ref="A1:X1528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.69921875" style="4" customWidth="1"/>
     <col min="5" max="10" width="20.69921875" style="4" customWidth="1"/>
     <col min="11" max="11" width="8.19921875" style="3" bestFit="1" customWidth="1"/>
